--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2532.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2532.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.603198094673485</v>
+        <v>1.949795603752136</v>
       </c>
       <c r="B1">
-        <v>3.686349616379217</v>
+        <v>2.139410972595215</v>
       </c>
       <c r="C1">
-        <v>3.033732978080113</v>
+        <v>2.519808292388916</v>
       </c>
       <c r="D1">
-        <v>1.514237676241997</v>
+        <v>3.155150651931763</v>
       </c>
       <c r="E1">
-        <v>1.461372289449702</v>
+        <v>2.27548623085022</v>
       </c>
     </row>
   </sheetData>
